--- a/biology/Botanique/Figuier_grande_feuille/Figuier_grande_feuille.xlsx
+++ b/biology/Botanique/Figuier_grande_feuille/Figuier_grande_feuille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Figuier blanc, Figuier grande feuille
-Le Figuier blanc (Martinique) ou Figuier grande feuille (Guadeloupe)[3], Ficus nymphaeifolia, est une espèce végétale de la famille des Moraceae. C'est un figuier étrangleur originaire d'Amérique du Sud.
+Le Figuier blanc (Martinique) ou Figuier grande feuille (Guadeloupe), Ficus nymphaeifolia, est une espèce végétale de la famille des Moraceae. C'est un figuier étrangleur originaire d'Amérique du Sud.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Détail du tronc
@@ -545,10 +559,12 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1768 par le botaniste d'origine écossaise Philip Miller (1691-1771), chef-jardinier du Chelsea Physic Garden jusqu'à sa mort. L'épithète spécifique nymphaeifolia signifie « à feuille de Nymphaea », du Grec nymphaia (nénuphar) et du latin folium (feuille)[4].
-En classification phylogénétique APG III (2009)[5], Ficus nymphaeifolia fait partie du genre Ficus, dans la section Americana de la famille des Moraceae[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1768 par le botaniste d'origine écossaise Philip Miller (1691-1771), chef-jardinier du Chelsea Physic Garden jusqu'à sa mort. L'épithète spécifique nymphaeifolia signifie « à feuille de Nymphaea », du Grec nymphaia (nénuphar) et du latin folium (feuille).
+En classification phylogénétique APG III (2009), Ficus nymphaeifolia fait partie du genre Ficus, dans la section Americana de la famille des Moraceae.
 </t>
         </is>
       </c>
